--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 0 (22, 10, 50, 39, 48)/Ableson 5 (20, 47, 6, 28, 3)/NCDE_32nodes_Uniform0.05Virtual_Nelson(22, 10, 50, 39, 48)_Ableson(20, 47, 6, 28, 3)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 0 (22, 10, 50, 39, 48)/Ableson 5 (20, 47, 6, 28, 3)/NCDE_32nodes_Uniform0.05Virtual_Nelson(22, 10, 50, 39, 48)_Ableson(20, 47, 6, 28, 3)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1.356069904428145E-05</v>
+        <v>1.336585149295133E-05</v>
       </c>
       <c r="E2">
-        <v>1.356069904428145E-05</v>
+        <v>1.336585149295133E-05</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9846601827577994</v>
+        <v>0.9847734688499893</v>
       </c>
       <c r="E3">
-        <v>0.9846601827577994</v>
+        <v>0.9847734688499893</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>8.411125089173155E-05</v>
+        <v>8.363541502081753E-05</v>
       </c>
       <c r="E4">
-        <v>8.411125089173155E-05</v>
+        <v>8.363541502081753E-05</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>3.733045175146362E-07</v>
+        <v>3.715829035001071E-07</v>
       </c>
       <c r="E5">
-        <v>3.733045175146362E-07</v>
+        <v>3.715829035001071E-07</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9467336424240096</v>
+        <v>0.9482485481274607</v>
       </c>
       <c r="E6">
-        <v>0.9467336424240096</v>
+        <v>0.9482485481274607</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -523,13 +523,13 @@
         <v>11</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.993086153285528</v>
+        <v>0.254417004346336</v>
       </c>
       <c r="E7">
-        <v>0.006913846714472038</v>
+        <v>0.7455829956536639</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9927070549360989</v>
+        <v>0.9998962763499752</v>
       </c>
       <c r="E8">
-        <v>0.007292945063901102</v>
+        <v>0.0001037236500247563</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.995547680181022</v>
+        <v>0.9953019302240896</v>
       </c>
       <c r="E9">
-        <v>0.004452319818977979</v>
+        <v>0.004698069775910363</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9926830643857975</v>
+        <v>0.9999999999999978</v>
       </c>
       <c r="E10">
-        <v>0.007316935614202547</v>
+        <v>2.220446049250313E-15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.995052185746528</v>
+        <v>0.9999999912209664</v>
       </c>
       <c r="E11">
-        <v>0.004947814253472016</v>
+        <v>8.779033611183706E-09</v>
       </c>
       <c r="F11">
-        <v>0.7140874862670898</v>
+        <v>0.8519709706306458</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>1.238097536843239E-05</v>
+        <v>1.237259609185932E-05</v>
       </c>
       <c r="E12">
-        <v>1.238097536843239E-05</v>
+        <v>1.237259609185932E-05</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.9983008352584706</v>
+        <v>0.9983241831121784</v>
       </c>
       <c r="E13">
-        <v>0.9983008352584706</v>
+        <v>0.9983241831121784</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.997707639767061</v>
+        <v>0.9977326672394022</v>
       </c>
       <c r="E14">
-        <v>0.997707639767061</v>
+        <v>0.9977326672394022</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1.303031048796165E-07</v>
+        <v>1.291473394686917E-07</v>
       </c>
       <c r="E15">
-        <v>1.303031048796165E-07</v>
+        <v>1.291473394686917E-07</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.1870714212546054</v>
+        <v>0.1895625038770426</v>
       </c>
       <c r="E16">
-        <v>0.1870714212546054</v>
+        <v>0.1895625038770426</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9999549857473442</v>
+        <v>0.5490134636165138</v>
       </c>
       <c r="E17">
-        <v>4.501425265579506E-05</v>
+        <v>0.4509865363834862</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.9999517309555792</v>
+        <v>0.9999997881397356</v>
       </c>
       <c r="E18">
-        <v>4.826904442079005E-05</v>
+        <v>2.118602644429757E-07</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.9999746524415517</v>
+        <v>0.9990472359004475</v>
       </c>
       <c r="E19">
-        <v>2.53475584482965E-05</v>
+        <v>0.0009527640995524722</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -717,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.9999508510856889</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>4.914891431107016E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,13 +731,13 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9999725975133194</v>
+        <v>0.9999999999987512</v>
       </c>
       <c r="E21">
-        <v>2.740248668064993E-05</v>
+        <v>1.248778858098376E-12</v>
       </c>
       <c r="F21">
-        <v>1.266311168670654</v>
+        <v>1.329138517379761</v>
       </c>
       <c r="G21">
         <v>0.8</v>
